--- a/resources/imports/Part.xlsx
+++ b/resources/imports/Part.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -295,6 +295,9 @@
     <t xml:space="preserve">A1129910441</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">缸体</t>
   </si>
   <si>
@@ -302,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">A2640109002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,8 +722,12 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -726,18 +736,24 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -1712,11 +1728,11 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:H100" type="list">
-      <formula1>"√"</formula1>
+      <formula1>"Y,N"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E100" type="none">
-      <formula1>0</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E100" type="whole">
+      <formula1>10000</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
